--- a/info/metricas/RL.xlsx
+++ b/info/metricas/RL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Error_Máximo</t>
+          <t>MaxError</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,15 +461,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Coef_Determinación</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>varianzaExplicada</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -480,29 +485,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1719.427585222537</v>
+        <v>-1875.055423557276</v>
       </c>
       <c r="C2" t="n">
-        <v>-88924.32700119652</v>
+        <v>-328502.452919431</v>
       </c>
       <c r="D2" t="n">
-        <v>-228.494600058958</v>
+        <v>-496.7216572359019</v>
       </c>
       <c r="E2" t="n">
-        <v>-298.2018225987167</v>
+        <v>-573.1513350934734</v>
       </c>
       <c r="F2" t="n">
-        <v>-184.2160969609066</v>
+        <v>-461.7280647272316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7729986637741434</v>
+        <v>0.1257158831812776</v>
       </c>
       <c r="H2" t="n">
+        <v>0.7505094957672137</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -511,29 +519,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2586.698600426851</v>
+        <v>-1942.542642107218</v>
       </c>
       <c r="C3" t="n">
-        <v>-92354.49244521724</v>
+        <v>-330701.1267357654</v>
       </c>
       <c r="D3" t="n">
-        <v>-227.2350856367029</v>
+        <v>-497.8055243607544</v>
       </c>
       <c r="E3" t="n">
-        <v>-303.8988194205717</v>
+        <v>-575.0661933514832</v>
       </c>
       <c r="F3" t="n">
-        <v>-178.5960365768063</v>
+        <v>-460.9717132889646</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7648809491529581</v>
+        <v>0.09183319386377753</v>
       </c>
       <c r="H3" t="n">
+        <v>0.7292052971065007</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -542,29 +553,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2726.663012344556</v>
+        <v>-2872.287043535915</v>
       </c>
       <c r="C4" t="n">
-        <v>-92948.32390041197</v>
+        <v>-344592.7543724943</v>
       </c>
       <c r="D4" t="n">
-        <v>-230.807219914908</v>
+        <v>-511.6592920451624</v>
       </c>
       <c r="E4" t="n">
-        <v>-304.8742755635706</v>
+        <v>-587.020233358693</v>
       </c>
       <c r="F4" t="n">
-        <v>-183.9292765141738</v>
+        <v>-477.4507664493224</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7565298724894599</v>
+        <v>0.0749628157244967</v>
       </c>
       <c r="H4" t="n">
+        <v>0.7361272710555796</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -573,29 +587,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2447.29201299256</v>
+        <v>-2332.931105812511</v>
       </c>
       <c r="C5" t="n">
-        <v>-93713.63284275582</v>
+        <v>-331914.8777755528</v>
       </c>
       <c r="D5" t="n">
-        <v>-227.6475428198367</v>
+        <v>-504.1765198783229</v>
       </c>
       <c r="E5" t="n">
-        <v>-306.1268247683561</v>
+        <v>-576.120541011647</v>
       </c>
       <c r="F5" t="n">
-        <v>-178.50290150178</v>
+        <v>-475.0385995043676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7595333217582362</v>
+        <v>0.1349165180751891</v>
       </c>
       <c r="H5" t="n">
+        <v>0.7638974279148912</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -604,29 +621,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3112.144301166449</v>
+        <v>-1922.741389485696</v>
       </c>
       <c r="C6" t="n">
-        <v>-97279.58727859132</v>
+        <v>-334134.3449368285</v>
       </c>
       <c r="D6" t="n">
-        <v>-232.2201765767136</v>
+        <v>-503.6221087039589</v>
       </c>
       <c r="E6" t="n">
-        <v>-311.896757403137</v>
+        <v>-578.0435493428056</v>
       </c>
       <c r="F6" t="n">
-        <v>-182.9343510748494</v>
+        <v>-467.0942760024361</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7684299887825768</v>
+        <v>0.1069386489552954</v>
       </c>
       <c r="H6" t="n">
+        <v>0.7530431241954216</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -635,29 +655,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2884.791859450299</v>
+        <v>-1786.830118043194</v>
       </c>
       <c r="C7" t="n">
-        <v>-90428.38898862706</v>
+        <v>-334396.1206476197</v>
       </c>
       <c r="D7" t="n">
-        <v>-224.3818331230959</v>
+        <v>-502.4036484483669</v>
       </c>
       <c r="E7" t="n">
-        <v>-300.7131340474291</v>
+        <v>-578.2699375271204</v>
       </c>
       <c r="F7" t="n">
-        <v>-178.9255208739084</v>
+        <v>-463.8173594877281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7561993175929542</v>
+        <v>0.1034537553998998</v>
       </c>
       <c r="H7" t="n">
+        <v>0.7377188967477617</v>
+      </c>
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -666,29 +689,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2544.767802330848</v>
+        <v>-1726.406613697952</v>
       </c>
       <c r="C8" t="n">
-        <v>-93402.18954255414</v>
+        <v>-334736.339163247</v>
       </c>
       <c r="D8" t="n">
-        <v>-229.8328249605535</v>
+        <v>-503.7328575340411</v>
       </c>
       <c r="E8" t="n">
-        <v>-305.6177179787751</v>
+        <v>-578.5640320338338</v>
       </c>
       <c r="F8" t="n">
-        <v>-181.313971013471</v>
+        <v>-467.8194030086042</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7599247872985639</v>
+        <v>0.09092374360440914</v>
       </c>
       <c r="H8" t="n">
+        <v>0.7355909530977358</v>
+      </c>
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -697,29 +723,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3656.608757841032</v>
+        <v>-2403.370682606792</v>
       </c>
       <c r="C9" t="n">
-        <v>-95986.63301407614</v>
+        <v>-327708.2498909569</v>
       </c>
       <c r="D9" t="n">
-        <v>-227.5858139589236</v>
+        <v>-497.9595005330826</v>
       </c>
       <c r="E9" t="n">
-        <v>-309.8170960648817</v>
+        <v>-572.4580769724163</v>
       </c>
       <c r="F9" t="n">
-        <v>-179.5833839292608</v>
+        <v>-463.6999333281696</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7463812841558199</v>
+        <v>0.1067298006765283</v>
       </c>
       <c r="H9" t="n">
+        <v>0.7454159128522508</v>
+      </c>
+      <c r="I9" t="n">
         <v>7</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -728,29 +757,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2657.621922428619</v>
+        <v>-1914.625018326268</v>
       </c>
       <c r="C10" t="n">
-        <v>-94954.34841405465</v>
+        <v>-330569.8099539174</v>
       </c>
       <c r="D10" t="n">
-        <v>-232.1589450390901</v>
+        <v>-502.2400143193867</v>
       </c>
       <c r="E10" t="n">
-        <v>-308.1466345979697</v>
+        <v>-574.9520066526574</v>
       </c>
       <c r="F10" t="n">
-        <v>-178.7315653837592</v>
+        <v>-475.1078020542898</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7639542462588597</v>
+        <v>0.09723200304889912</v>
       </c>
       <c r="H10" t="n">
+        <v>0.7458651691539772</v>
+      </c>
+      <c r="I10" t="n">
         <v>8</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>RL00</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>
@@ -759,339 +791,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2854.084069233685</v>
+        <v>-2120.686465580497</v>
       </c>
       <c r="C11" t="n">
-        <v>-91094.84456889753</v>
+        <v>-331365.5499407171</v>
       </c>
       <c r="D11" t="n">
-        <v>-227.6355260618421</v>
+        <v>-500.4311390773461</v>
       </c>
       <c r="E11" t="n">
-        <v>-301.819224982269</v>
+        <v>-575.643596282211</v>
       </c>
       <c r="F11" t="n">
-        <v>-179.5756319654784</v>
+        <v>-464.006764454596</v>
       </c>
       <c r="G11" t="n">
-        <v>0.763227961615412</v>
+        <v>0.1119880695232064</v>
       </c>
       <c r="H11" t="n">
+        <v>0.7450960954081025</v>
+      </c>
+      <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>RL00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-1728.4574155285</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-89675.83159896324</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-230.5013244708043</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-299.4592319481288</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-189.3932580864002</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7710802624364461</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-2596.247187164095</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-93292.93493744855</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-229.6209784380153</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-305.4389217788862</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-184.4982972394372</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7624918319350942</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-2729.031668126391</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-93497.67015922273</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-232.6307674571941</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-305.7738873076357</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-186.8329092139703</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7550909072874257</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-2433.313114580676</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-94168.36334637774</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-229.4579777871432</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-306.868641842691</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-181.0818793840403</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7583664954344221</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-3147.344152218371</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-98554.17382971956</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-235.0044505841404</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-313.9333907530697</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-186.6496625013784</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.7653958885134519</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-2877.845168674667</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-90710.17277247968</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-226.1500300729925</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-301.1812955222812</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-180.6052317118417</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7554396106075389</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-2542.324463638882</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-94243.45209089413</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-232.4188353882013</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-306.9909641844433</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-184.4633309612199</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.7577624580617481</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-3655.900153262255</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-97315.79297187141</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-230.167697332573</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-311.9547931541867</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-181.7543245066903</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.7428693384706524</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-2642.04444420958</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-95397.56476585995</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-233.8931007820856</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-308.8649620236325</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-180.8250347141228</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.7628524606157622</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>RL02</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-2849.887363648565</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-91735.61173480033</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-229.8102921285702</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-302.8788730413535</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-182.0403589890977</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.761562491426416</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>RL02</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RL03</t>
         </is>
       </c>
     </row>

--- a/info/metricas/RL.xlsx
+++ b/info/metricas/RL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,32 +485,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1875.055423557276</v>
+        <v>-2409.204772956096</v>
       </c>
       <c r="C2" t="n">
-        <v>-328502.452919431</v>
+        <v>-95850.72457797018</v>
       </c>
       <c r="D2" t="n">
-        <v>-496.7216572359019</v>
+        <v>-227.3636372285432</v>
       </c>
       <c r="E2" t="n">
-        <v>-573.1513350934734</v>
+        <v>-309.5976818032884</v>
       </c>
       <c r="F2" t="n">
-        <v>-461.7280647272316</v>
+        <v>-174.2793677565124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1257158831812776</v>
+        <v>0.7383455154737205</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7505094957672137</v>
+        <v>0.7384665269319983</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -519,32 +519,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1942.542642107218</v>
+        <v>-2918.622581587655</v>
       </c>
       <c r="C3" t="n">
-        <v>-330701.1267357654</v>
+        <v>-97579.12446966922</v>
       </c>
       <c r="D3" t="n">
-        <v>-497.8055243607544</v>
+        <v>-229.4210273165915</v>
       </c>
       <c r="E3" t="n">
-        <v>-575.0661933514832</v>
+        <v>-312.3765747774139</v>
       </c>
       <c r="F3" t="n">
-        <v>-460.9717132889646</v>
+        <v>-182.3051858667968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09183319386377753</v>
+        <v>0.7344364399666689</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7292052971065007</v>
+        <v>0.7344365961135807</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -553,32 +553,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2872.287043535915</v>
+        <v>-2398.613620846707</v>
       </c>
       <c r="C4" t="n">
-        <v>-344592.7543724943</v>
+        <v>-93545.13093304278</v>
       </c>
       <c r="D4" t="n">
-        <v>-511.6592920451624</v>
+        <v>-224.9200899997606</v>
       </c>
       <c r="E4" t="n">
-        <v>-587.020233358693</v>
+        <v>-305.8514850920995</v>
       </c>
       <c r="F4" t="n">
-        <v>-477.4507664493224</v>
+        <v>-175.7024234240711</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0749628157244967</v>
+        <v>0.7517676842466043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7361272710555796</v>
+        <v>0.7517772719590792</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2332.931105812511</v>
+        <v>-2800.139974627677</v>
       </c>
       <c r="C5" t="n">
-        <v>-331914.8777755528</v>
+        <v>-92676.06286625993</v>
       </c>
       <c r="D5" t="n">
-        <v>-504.1765198783229</v>
+        <v>-225.505604350704</v>
       </c>
       <c r="E5" t="n">
-        <v>-576.120541011647</v>
+        <v>-304.4274344835891</v>
       </c>
       <c r="F5" t="n">
-        <v>-475.0385995043676</v>
+        <v>-180.9805267370256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1349165180751891</v>
+        <v>0.7504881146176059</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7638974279148912</v>
+        <v>0.7506909968837217</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -621,32 +621,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1922.741389485696</v>
+        <v>-2036.492374363079</v>
       </c>
       <c r="C6" t="n">
-        <v>-334134.3449368285</v>
+        <v>-90791.63452492729</v>
       </c>
       <c r="D6" t="n">
-        <v>-503.6221087039589</v>
+        <v>-223.4456565075353</v>
       </c>
       <c r="E6" t="n">
-        <v>-578.0435493428056</v>
+        <v>-301.316502244612</v>
       </c>
       <c r="F6" t="n">
-        <v>-467.0942760024361</v>
+        <v>-171.9583347506432</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1069386489552954</v>
+        <v>0.7514480320035393</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7530431241954216</v>
+        <v>0.7515097541519214</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -655,32 +655,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1786.830118043194</v>
+        <v>-3360.092378179028</v>
       </c>
       <c r="C7" t="n">
-        <v>-334396.1206476197</v>
+        <v>-99923.82341008002</v>
       </c>
       <c r="D7" t="n">
-        <v>-502.4036484483669</v>
+        <v>-229.6515173329865</v>
       </c>
       <c r="E7" t="n">
-        <v>-578.2699375271204</v>
+        <v>-316.1072973059623</v>
       </c>
       <c r="F7" t="n">
-        <v>-463.8173594877281</v>
+        <v>-179.0687707059836</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1034537553998998</v>
+        <v>0.7410405736208745</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7377188967477617</v>
+        <v>0.7410634183554692</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -689,32 +689,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1726.406613697952</v>
+        <v>-2411.967603399882</v>
       </c>
       <c r="C8" t="n">
-        <v>-334736.339163247</v>
+        <v>-96021.21773777572</v>
       </c>
       <c r="D8" t="n">
-        <v>-503.7328575340411</v>
+        <v>-223.8223045977</v>
       </c>
       <c r="E8" t="n">
-        <v>-578.5640320338338</v>
+        <v>-309.8729057819927</v>
       </c>
       <c r="F8" t="n">
-        <v>-467.8194030086042</v>
+        <v>-170.9862039484384</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09092374360440914</v>
+        <v>0.7431765879131527</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7355909530977358</v>
+        <v>0.743197740206144</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -723,32 +723,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2403.370682606792</v>
+        <v>-2162.088146525013</v>
       </c>
       <c r="C9" t="n">
-        <v>-327708.2498909569</v>
+        <v>-95106.65272497683</v>
       </c>
       <c r="D9" t="n">
-        <v>-497.9595005330826</v>
+        <v>-225.6074473721611</v>
       </c>
       <c r="E9" t="n">
-        <v>-572.4580769724163</v>
+        <v>-308.3936651829554</v>
       </c>
       <c r="F9" t="n">
-        <v>-463.6999333281696</v>
+        <v>-172.9540769138493</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1067298006765283</v>
+        <v>0.7448661750452112</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7454159128522508</v>
+        <v>0.744870364349428</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1914.625018326268</v>
+        <v>-2043.769641023385</v>
       </c>
       <c r="C10" t="n">
-        <v>-330569.8099539174</v>
+        <v>-92860.08730494688</v>
       </c>
       <c r="D10" t="n">
-        <v>-502.2400143193867</v>
+        <v>-226.6006597169402</v>
       </c>
       <c r="E10" t="n">
-        <v>-574.9520066526574</v>
+        <v>-304.7295313961988</v>
       </c>
       <c r="F10" t="n">
-        <v>-475.1078020542898</v>
+        <v>-177.0816153743338</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09723200304889912</v>
+        <v>0.7458935074939466</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7458651691539772</v>
+        <v>0.7461206701050784</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
         </is>
       </c>
     </row>
@@ -791,32 +791,372 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2120.686465580497</v>
+        <v>-2117.79719134082</v>
       </c>
       <c r="C11" t="n">
-        <v>-331365.5499407171</v>
+        <v>-91291.10668745812</v>
       </c>
       <c r="D11" t="n">
-        <v>-500.4311390773461</v>
+        <v>-224.5535987405125</v>
       </c>
       <c r="E11" t="n">
-        <v>-575.643596282211</v>
+        <v>-302.1441819520246</v>
       </c>
       <c r="F11" t="n">
-        <v>-464.006764454596</v>
+        <v>-175.0145507601499</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1119880695232064</v>
+        <v>0.7546770313373811</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7450960954081025</v>
+        <v>0.7546847633116971</v>
       </c>
       <c r="I11" t="n">
         <v>9</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>RL03</t>
+          <t>RL00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-2399.781034440035</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-96455.73228355129</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-228.6367870595829</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-310.5732317562982</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-177.4202096386298</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7366939580125197</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.7368115827066858</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-2891.861487307101</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-98110.30198768653</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-230.5138006791087</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-313.2256406932333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-183.004704341149</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7329908296123948</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7329911518078202</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-2369.466281329955</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-94149.34306588175</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-226.284290187712</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-306.8376493618111</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-178.3111812360846</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7501643407540577</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7501764753589024</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-2820.585366965088</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-93254.62209730651</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-226.7192366098173</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-305.3761976600444</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-181.8825982056738</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7489304588424339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.7491074765942238</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-2036.56507937296</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-91206.73168703406</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-224.6072353518549</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-302.0045226267879</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-175.434010645016</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7503116584037991</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7503761681817762</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-3357.812134449169</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-100263.362617852</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-230.5890438296793</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-316.6439050697992</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-181.1441550253681</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7401606345285021</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7401825899770293</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-2414.647589076613</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-96648.30270487182</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-225.2681672849177</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-310.8831013498029</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-173.552937608845</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7414993533944465</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7415137633817728</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-2172.141041724594</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-95744.7714947822</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-226.98053400665</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-309.4265203481793</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-173.2541436182417</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7431543528135249</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7431566353983374</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-2037.091239089366</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-92891.97425106463</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-227.0366507540827</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-304.7818469841415</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-177.1815360069339</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7458062506296697</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7460046885332458</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>RL02</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-2115.626900049318</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-91826.25644147767</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-225.9766933282026</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-303.0284746380737</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-178.1899433852603</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7532389446376041</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7532449616478759</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>RL02</t>
         </is>
       </c>
     </row>
